--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5395608797535403</v>
+        <v>0.6437980513347096</v>
       </c>
       <c r="D2">
-        <v>0.589571446527263</v>
+        <v>0.526361675759262</v>
       </c>
       <c r="E2">
         <v>0.776496306942658</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4658990881515319</v>
+        <v>0.4347993017604324</v>
       </c>
       <c r="D3">
-        <v>0.6413481650028166</v>
+        <v>0.6679433515336597</v>
       </c>
       <c r="E3">
         <v>0.776496306942658</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.4223297896196843</v>
+        <v>0.4301277565160472</v>
       </c>
       <c r="D4">
-        <v>0.6728383916790781</v>
+        <v>0.6712867519188706</v>
       </c>
       <c r="E4">
         <v>0.776496306942658</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.7143697081662219</v>
+        <v>0.9105522750147267</v>
       </c>
       <c r="D5">
-        <v>0.4750978998441455</v>
+        <v>0.3724004498012607</v>
       </c>
       <c r="E5">
         <v>0.776496306942658</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1203754895290241</v>
+        <v>-0.1083311024670735</v>
       </c>
       <c r="D6">
-        <v>0.9042001091641936</v>
+        <v>0.9147150187407616</v>
       </c>
       <c r="E6">
         <v>0.7581152304423389</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1592465449095915</v>
+        <v>-0.1770797628242071</v>
       </c>
       <c r="D7">
-        <v>0.8734937871400814</v>
+        <v>0.861065906971755</v>
       </c>
       <c r="E7">
         <v>0.7581152304423389</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.1001810580355617</v>
+        <v>0.1221766469680263</v>
       </c>
       <c r="D8">
-        <v>0.9202125440946642</v>
+        <v>0.9038682996104106</v>
       </c>
       <c r="E8">
         <v>0.7581152304423389</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.02799643917075424</v>
+        <v>-0.02804616415582018</v>
       </c>
       <c r="D9">
-        <v>0.9776683182959296</v>
+        <v>0.9778781957689131</v>
       </c>
       <c r="E9">
         <v>0.7618980925146588</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2254296206403569</v>
+        <v>0.1664115147584617</v>
       </c>
       <c r="D10">
-        <v>0.8216725053156271</v>
+        <v>0.8693530696882559</v>
       </c>
       <c r="E10">
         <v>0.7618980925146588</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.2366911907200833</v>
+        <v>0.2265684966263271</v>
       </c>
       <c r="D11">
-        <v>0.8129252421837112</v>
+        <v>0.8228512228771725</v>
       </c>
       <c r="E11">
         <v>0.7626532268135495</v>
